--- a/data/仓库财务账单/海外仓账单/海洋/海洋国际英国海外仓20241201-1231账单（共支出880.22英镑，其中订单441.94英镑，仓租438.28英镑）.xlsx
+++ b/data/仓库财务账单/海外仓账单/海洋/海洋国际英国海外仓20241201-1231账单（共支出880.22英镑，其中订单441.94英镑，仓租438.28英镑）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="11535" tabRatio="212"/>
+    <workbookView windowHeight="17655" tabRatio="212"/>
   </bookViews>
   <sheets>
     <sheet name="CostBill" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="1019">
   <si>
     <t>NO</t>
   </si>
@@ -3087,32 +3087,6 @@
   </si>
   <si>
     <t>409</t>
-  </si>
-  <si>
-    <t>合计</t>
-  </si>
-  <si>
-    <r>
-      <t>其中订单</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>125</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="1"/>
-      </rPr>
-      <t>个</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -4314,7 +4288,7 @@
   <dimension ref="A1:P414"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D380" workbookViewId="0">
-      <selection activeCell="F417" sqref="F417"/>
+      <selection activeCell="H412" sqref="H412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
@@ -23840,30 +23814,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="8:9">
-      <c r="H412" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="I412" s="5">
-        <f>SUM(I2:I410)</f>
-        <v>880.219999999999</v>
-      </c>
-    </row>
-    <row r="413" spans="8:9">
-      <c r="H413" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="I413" s="5">
-        <v>441.94</v>
-      </c>
-    </row>
-    <row r="414" spans="8:9">
-      <c r="H414" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I414" s="5">
-        <v>438.28</v>
-      </c>
+    <row r="412" spans="1:16">
+      <c r="H412" s="4"/>
+      <c r="I412" s="5"/>
+    </row>
+    <row r="413" spans="1:16">
+      <c r="H413" s="4"/>
+      <c r="I413" s="5"/>
+    </row>
+    <row r="414" spans="1:16">
+      <c r="H414" s="4"/>
+      <c r="I414" s="5"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P410" etc:filterBottomFollowUsedRange="0">
